--- a/biology/Biologie cellulaire et moléculaire/Guanylate_disodique/Guanylate_disodique.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Guanylate_disodique/Guanylate_disodique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le guanylate disodique (E627)[1], ou disodium 5'-guanylate, est un sel sodique de la guanosine monophosphate (GMP). C'est un additif alimentaire utilisé comme exhausteur de goût[3], pour apporter le goût umami aux préparations alimentaires. 
-Le guanylate disodique est souvent présent en mélange dans le 5'-ribonucléotide disodique (E635) avec l'inosinate disodique (E631). Il est utilisé en synergie avec l'acide glutamique ou le glutamate monosodique (MSG)[4].
-Le guanylate disodique est vendu sous forme hydratée (7 molécules d'eau)[1].
-Le guanylate disodique est produit à partir de poissons ou d'algues séchées et largement utilisé dans les denrées alimentaires. Il est Fema GRAS (nombre FEMA 3668[3]) et rentre dans la composition des arômes et préparations alimentaires.
+Le guanylate disodique (E627), ou disodium 5'-guanylate, est un sel sodique de la guanosine monophosphate (GMP). C'est un additif alimentaire utilisé comme exhausteur de goût, pour apporter le goût umami aux préparations alimentaires. 
+Le guanylate disodique est souvent présent en mélange dans le 5'-ribonucléotide disodique (E635) avec l'inosinate disodique (E631). Il est utilisé en synergie avec l'acide glutamique ou le glutamate monosodique (MSG).
+Le guanylate disodique est vendu sous forme hydratée (7 molécules d'eau).
+Le guanylate disodique est produit à partir de poissons ou d'algues séchées et largement utilisé dans les denrées alimentaires. Il est Fema GRAS (nombre FEMA 3668) et rentre dans la composition des arômes et préparations alimentaires.
 </t>
         </is>
       </c>
